--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-discriminator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
